--- a/Python/応用/excel×Python/excels/sanada.xlsx
+++ b/Python/応用/excel×Python/excels/sanada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="202301" sheetId="1" state="visible" r:id="rId3"/>
@@ -127,15 +127,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +385,7 @@
         <v>44931</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -502,7 +502,7 @@
         <v>44944</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2836,8 +2836,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2959,7 +2959,7 @@
         <v>44999</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
